--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_13_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_13_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1123006.948866527</v>
+        <v>1101727.066045464</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4171427.157673261</v>
+        <v>4171427.157673262</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>66.67731766039439</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="G2" t="n">
-        <v>116.9725659584295</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,10 +718,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87.10144528652566</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -752,10 +752,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -797,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>10.18456372565657</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -825,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>93.95985112587546</v>
       </c>
       <c r="X4" t="n">
-        <v>189.1966334026336</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>133.1869618013053</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>412.2818458970816</v>
+        <v>12.28184589708156</v>
       </c>
       <c r="H5" t="n">
-        <v>308.5370958323769</v>
+        <v>161.6574971452705</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>33.7470356681338</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>127.0959766565243</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.6498268080146</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.8350452710705</v>
@@ -1043,7 +1043,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>103.8408611581079</v>
       </c>
     </row>
     <row r="7">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1104,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.4014587515235</v>
+        <v>86.58982915211082</v>
       </c>
       <c r="T7" t="n">
-        <v>222.1557535054015</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>236.0912760909717</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>176.7738246218257</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>149.9172114541105</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1293,22 +1293,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>90.69811547110092</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>5.056435327167473</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>14.59946548753761</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>75.45713216103611</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,10 +1387,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>52.23490948285925</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>46.32727239260574</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>368.9303922288803</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1624,10 +1624,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>178.7060423383823</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>173.626889274476</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>196.98992439718</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>56.17639526046347</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>179.6989004166827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
@@ -1900,7 +1900,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>84.69473660442864</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>74.7576914549238</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2083,22 +2083,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>81.10098877883308</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>243.2391485592449</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247809</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2241,19 +2241,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>113.5103646250817</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2301,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>107.9221621584906</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>84.344660579116</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2377,13 +2377,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>2.834206670629865</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249713</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>202.4425172951289</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>231.8420908016145</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2572,10 +2572,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,13 +2608,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>274.7944255145775</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2724,10 +2724,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>51.06561173382075</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>79.4921923050191</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>99.59933623926882</v>
+        <v>282.7223964269596</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396201</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>99.36399557806605</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>202.4425172951288</v>
       </c>
     </row>
     <row r="32">
@@ -3034,19 +3034,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>3.186321549969671</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>400.725881964694</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3198,16 +3198,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>8.140001196962796</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>163.2704070622395</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3268,25 +3268,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>327.7094049593645</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,19 +3319,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>100.9068926882556</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3426,19 +3426,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>0.4424312885272763</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>72.33640507852752</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>194.0887380697438</v>
       </c>
       <c r="V38" t="n">
-        <v>293.238859482898</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>139.2275206350204</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>77.27446886463795</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3748,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3757,10 +3757,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>165.6764166986995</v>
       </c>
       <c r="W41" t="n">
-        <v>168.1158122680967</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>129.5765970421789</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>78.53455727340413</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3985,7 +3985,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>139.8060972184445</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>194.3606546765277</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396201</v>
@@ -4039,7 +4039,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>58.65179830488204</v>
       </c>
       <c r="F46" t="n">
-        <v>128.1592673228011</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>522.1002068716689</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="C2" t="n">
-        <v>522.1002068716689</v>
+        <v>634.1670622275112</v>
       </c>
       <c r="D2" t="n">
-        <v>522.1002068716689</v>
+        <v>566.8162363079209</v>
       </c>
       <c r="E2" t="n">
-        <v>522.1002068716689</v>
+        <v>566.8162363079209</v>
       </c>
       <c r="F2" t="n">
-        <v>255.7225503044908</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917587</v>
       </c>
       <c r="K2" t="n">
         <v>142.2640879052542</v>
@@ -4339,13 +4339,13 @@
         <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991319</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358417</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4357,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="V2" t="n">
-        <v>788.477863438847</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="W2" t="n">
-        <v>522.1002068716689</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="X2" t="n">
-        <v>522.1002068716689</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="Y2" t="n">
-        <v>522.1002068716689</v>
+        <v>900.5447187946892</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>564.7499717197347</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C3" t="n">
-        <v>564.7499717197347</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D3" t="n">
-        <v>564.7499717197347</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E3" t="n">
-        <v>405.5125167142792</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F3" t="n">
-        <v>258.9779587411641</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>121.5812722902314</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
         <v>21.0971104001205</v>
@@ -4409,25 +4409,25 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004804</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699346</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302313</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267552</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293602</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O3" t="n">
-        <v>909.46721075609</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789494</v>
+        <v>930.1763583891336</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4436,25 +4436,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>887.8833378166548</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>887.8833378166548</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>887.8833378166548</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V3" t="n">
-        <v>652.7312295849122</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W3" t="n">
-        <v>652.7312295849122</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X3" t="n">
-        <v>652.7312295849122</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="Y3" t="n">
-        <v>652.7312295849122</v>
+        <v>818.4718993411373</v>
       </c>
     </row>
     <row r="4">
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36.32155393434482</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="C4" t="n">
-        <v>36.32155393434482</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="D4" t="n">
-        <v>36.32155393434482</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="E4" t="n">
-        <v>36.32155393434482</v>
+        <v>336.5564185430274</v>
       </c>
       <c r="F4" t="n">
-        <v>36.32155393434482</v>
+        <v>189.666471045117</v>
       </c>
       <c r="G4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551011</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375338</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227048</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075545</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4512,28 +4512,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407079</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>719.2759572512193</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>493.8069210092336</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>227.4292644420556</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V4" t="n">
-        <v>227.4292644420556</v>
+        <v>800.1710318001379</v>
       </c>
       <c r="W4" t="n">
-        <v>227.4292644420556</v>
+        <v>705.2620912689506</v>
       </c>
       <c r="X4" t="n">
-        <v>36.32155393434482</v>
+        <v>705.2620912689506</v>
       </c>
       <c r="Y4" t="n">
-        <v>36.32155393434482</v>
+        <v>484.4695121254205</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1558.739534920076</v>
+        <v>585.4697601843584</v>
       </c>
       <c r="C5" t="n">
-        <v>1558.739534920076</v>
+        <v>216.5072432439467</v>
       </c>
       <c r="D5" t="n">
-        <v>1558.739534920076</v>
+        <v>216.5072432439467</v>
       </c>
       <c r="E5" t="n">
-        <v>1172.951282321832</v>
+        <v>216.5072432439467</v>
       </c>
       <c r="F5" t="n">
-        <v>761.9653775322244</v>
+        <v>209.5617424947432</v>
       </c>
       <c r="G5" t="n">
-        <v>345.5190685452733</v>
+        <v>197.1558375481962</v>
       </c>
       <c r="H5" t="n">
-        <v>33.86543639135719</v>
+        <v>33.86543639135725</v>
       </c>
       <c r="I5" t="n">
-        <v>33.86543639135719</v>
+        <v>33.86543639135725</v>
       </c>
       <c r="J5" t="n">
         <v>108.4604468780274</v>
       </c>
       <c r="K5" t="n">
-        <v>270.997549081868</v>
+        <v>270.9975490818684</v>
       </c>
       <c r="L5" t="n">
-        <v>509.5409587373962</v>
+        <v>509.540958737397</v>
       </c>
       <c r="M5" t="n">
-        <v>806.6359018176449</v>
+        <v>806.6359018176462</v>
       </c>
       <c r="N5" t="n">
-        <v>1113.151960058965</v>
+        <v>1113.151960058967</v>
       </c>
       <c r="O5" t="n">
-        <v>1389.251120836691</v>
+        <v>1389.251120836693</v>
       </c>
       <c r="P5" t="n">
-        <v>1590.394365921682</v>
+        <v>1590.394365921685</v>
       </c>
       <c r="Q5" t="n">
-        <v>1693.271819567859</v>
+        <v>1693.271819567862</v>
       </c>
       <c r="R5" t="n">
-        <v>1693.271819567859</v>
+        <v>1693.271819567862</v>
       </c>
       <c r="S5" t="n">
-        <v>1693.271819567859</v>
+        <v>1693.271819567862</v>
       </c>
       <c r="T5" t="n">
-        <v>1693.271819567859</v>
+        <v>1693.271819567862</v>
       </c>
       <c r="U5" t="n">
-        <v>1693.271819567859</v>
+        <v>1693.271819567862</v>
       </c>
       <c r="V5" t="n">
-        <v>1693.271819567859</v>
+        <v>1362.208932224292</v>
       </c>
       <c r="W5" t="n">
-        <v>1693.271819567859</v>
+        <v>1362.208932224292</v>
       </c>
       <c r="X5" t="n">
-        <v>1693.271819567859</v>
+        <v>1362.208932224292</v>
       </c>
       <c r="Y5" t="n">
-        <v>1693.271819567859</v>
+        <v>972.0696002484801</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>67.95335120765395</v>
+        <v>663.0248883123061</v>
       </c>
       <c r="C6" t="n">
-        <v>67.95335120765395</v>
+        <v>488.571859031179</v>
       </c>
       <c r="D6" t="n">
-        <v>67.95335120765395</v>
+        <v>339.6374493699278</v>
       </c>
       <c r="E6" t="n">
-        <v>67.95335120765395</v>
+        <v>180.3999943644723</v>
       </c>
       <c r="F6" t="n">
-        <v>67.95335120765395</v>
+        <v>33.86543639135725</v>
       </c>
       <c r="G6" t="n">
-        <v>67.95335120765395</v>
+        <v>33.86543639135725</v>
       </c>
       <c r="H6" t="n">
-        <v>67.95335120765395</v>
+        <v>33.86543639135725</v>
       </c>
       <c r="I6" t="n">
-        <v>33.86543639135719</v>
+        <v>33.86543639135725</v>
       </c>
       <c r="J6" t="n">
-        <v>59.47586665324397</v>
+        <v>59.47586665324419</v>
       </c>
       <c r="K6" t="n">
-        <v>181.4029958650487</v>
+        <v>181.4029958650492</v>
       </c>
       <c r="L6" t="n">
-        <v>391.671608987783</v>
+        <v>391.6716089877839</v>
       </c>
       <c r="M6" t="n">
-        <v>682.6233456286386</v>
+        <v>656.4020309445247</v>
       </c>
       <c r="N6" t="n">
-        <v>968.7690390403656</v>
+        <v>942.547724356252</v>
       </c>
       <c r="O6" t="n">
-        <v>1208.316650214562</v>
+        <v>1182.095335530449</v>
       </c>
       <c r="P6" t="n">
-        <v>1627.401425557608</v>
+        <v>1601.180110873495</v>
       </c>
       <c r="Q6" t="n">
-        <v>1693.078019232573</v>
+        <v>1693.078019232576</v>
       </c>
       <c r="R6" t="n">
-        <v>1693.271819567859</v>
+        <v>1693.271819567862</v>
       </c>
       <c r="S6" t="n">
-        <v>1564.89204516733</v>
+        <v>1693.271819567862</v>
       </c>
       <c r="T6" t="n">
-        <v>1369.286159502669</v>
+        <v>1693.271819567862</v>
       </c>
       <c r="U6" t="n">
-        <v>1141.169952158153</v>
+        <v>1465.155612223347</v>
       </c>
       <c r="V6" t="n">
-        <v>906.0178439264103</v>
+        <v>1230.003503991604</v>
       </c>
       <c r="W6" t="n">
-        <v>651.7804871982087</v>
+        <v>975.7661472634024</v>
       </c>
       <c r="X6" t="n">
-        <v>443.9289869926759</v>
+        <v>767.9146470578696</v>
       </c>
       <c r="Y6" t="n">
-        <v>236.168688227722</v>
+        <v>663.0248883123061</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>181.7785299737503</v>
+        <v>33.86543639135725</v>
       </c>
       <c r="C7" t="n">
-        <v>181.7785299737503</v>
+        <v>33.86543639135725</v>
       </c>
       <c r="D7" t="n">
-        <v>181.7785299737503</v>
+        <v>33.86543639135725</v>
       </c>
       <c r="E7" t="n">
-        <v>33.86543639135719</v>
+        <v>33.86543639135725</v>
       </c>
       <c r="F7" t="n">
-        <v>33.86543639135719</v>
+        <v>33.86543639135725</v>
       </c>
       <c r="G7" t="n">
-        <v>33.86543639135719</v>
+        <v>33.86543639135725</v>
       </c>
       <c r="H7" t="n">
-        <v>33.86543639135719</v>
+        <v>33.86543639135725</v>
       </c>
       <c r="I7" t="n">
-        <v>33.86543639135719</v>
+        <v>33.86543639135725</v>
       </c>
       <c r="J7" t="n">
-        <v>36.28512133652165</v>
+        <v>36.2851213365218</v>
       </c>
       <c r="K7" t="n">
-        <v>170.0982437128592</v>
+        <v>170.0982437128595</v>
       </c>
       <c r="L7" t="n">
-        <v>396.8594047119577</v>
+        <v>396.8594047119582</v>
       </c>
       <c r="M7" t="n">
-        <v>646.3363778191524</v>
+        <v>646.3363778191531</v>
       </c>
       <c r="N7" t="n">
-        <v>895.3159625361636</v>
+        <v>895.3159625361644</v>
       </c>
       <c r="O7" t="n">
-        <v>1109.272612021379</v>
+        <v>1109.27261202138</v>
       </c>
       <c r="P7" t="n">
-        <v>1268.828805580464</v>
+        <v>1268.828805580465</v>
       </c>
       <c r="Q7" t="n">
-        <v>1295.862163397012</v>
+        <v>1295.862163397013</v>
       </c>
       <c r="R7" t="n">
-        <v>1295.862163397012</v>
+        <v>1295.862163397013</v>
       </c>
       <c r="S7" t="n">
-        <v>1093.436447486382</v>
+        <v>1208.397689505992</v>
       </c>
       <c r="T7" t="n">
-        <v>869.0366964708248</v>
+        <v>1208.397689505992</v>
       </c>
       <c r="U7" t="n">
-        <v>630.5606600152978</v>
+        <v>1208.397689505992</v>
       </c>
       <c r="V7" t="n">
-        <v>630.5606600152978</v>
+        <v>953.7132013001051</v>
       </c>
       <c r="W7" t="n">
-        <v>630.5606600152978</v>
+        <v>664.2960312631444</v>
       </c>
       <c r="X7" t="n">
-        <v>402.5711091172805</v>
+        <v>436.3064803651271</v>
       </c>
       <c r="Y7" t="n">
-        <v>181.7785299737503</v>
+        <v>215.5139012215969</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1671.539306344595</v>
+        <v>1753.808578312942</v>
       </c>
       <c r="C8" t="n">
-        <v>1302.576789404184</v>
+        <v>1384.84606137253</v>
       </c>
       <c r="D8" t="n">
-        <v>944.3110907974333</v>
+        <v>1026.58036276578</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974333</v>
+        <v>640.7921101675356</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078258</v>
+        <v>229.8062053779281</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362819</v>
@@ -4810,10 +4810,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4822,34 +4822,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>2106.577233583056</v>
       </c>
       <c r="W8" t="n">
-        <v>2209.570673130041</v>
+        <v>1753.808578312942</v>
       </c>
       <c r="X8" t="n">
-        <v>2058.139146408717</v>
+        <v>1753.808578312942</v>
       </c>
       <c r="Y8" t="n">
-        <v>2058.139146408717</v>
+        <v>1753.808578312942</v>
       </c>
     </row>
     <row r="9">
@@ -4859,61 +4859,61 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
-        <v>168.0008189145195</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380223</v>
+        <v>590.2049751143502</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694942</v>
+        <v>884.9085321458221</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601822</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434119</v>
+        <v>2214.708848710447</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U9" t="n">
         <v>2004.520742047138</v>
@@ -4922,10 +4922,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>514.8620968941286</v>
+        <v>461.9138669598628</v>
       </c>
       <c r="C10" t="n">
-        <v>514.8620968941286</v>
+        <v>292.977684031956</v>
       </c>
       <c r="D10" t="n">
-        <v>514.8620968941286</v>
+        <v>142.8610446196202</v>
       </c>
       <c r="E10" t="n">
-        <v>514.8620968941286</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="F10" t="n">
-        <v>367.9721493962183</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020476</v>
@@ -4989,25 +4989,25 @@
         <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T10" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U10" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V10" t="n">
-        <v>1434.709861802877</v>
+        <v>1381.761631868611</v>
       </c>
       <c r="W10" t="n">
-        <v>1145.292691765916</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X10" t="n">
-        <v>917.3031408678985</v>
+        <v>864.3549109336327</v>
       </c>
       <c r="Y10" t="n">
-        <v>696.5105617243684</v>
+        <v>643.5623317901026</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1308.370295943746</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C11" t="n">
-        <v>1308.370295943746</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D11" t="n">
-        <v>1308.370295943746</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794323</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450752</v>
+        <v>2788.565186649823</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.975386180638</v>
+        <v>2435.796531379709</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.509627919558</v>
+        <v>2062.330773118629</v>
       </c>
       <c r="Y11" t="n">
-        <v>1308.370295943746</v>
+        <v>2062.330773118629</v>
       </c>
     </row>
     <row r="12">
@@ -5114,19 +5114,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5138,10 +5138,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>362.8175152271513</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C13" t="n">
-        <v>362.8175152271513</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D13" t="n">
-        <v>362.8175152271513</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E13" t="n">
-        <v>362.8175152271513</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F13" t="n">
-        <v>362.8175152271513</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G13" t="n">
         <v>310.0549803959803</v>
@@ -5196,19 +5196,19 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5220,31 +5220,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U13" t="n">
-        <v>1134.908724368016</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V13" t="n">
-        <v>880.2242361621292</v>
+        <v>1790.668866207025</v>
       </c>
       <c r="W13" t="n">
-        <v>590.8070661251686</v>
+        <v>1501.251696170064</v>
       </c>
       <c r="X13" t="n">
-        <v>362.8175152271513</v>
+        <v>1273.262145272047</v>
       </c>
       <c r="Y13" t="n">
-        <v>362.8175152271513</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1859.132475219474</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C14" t="n">
-        <v>1859.132475219474</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D14" t="n">
-        <v>1500.866776612724</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E14" t="n">
-        <v>1115.07852401448</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F14" t="n">
-        <v>704.0926192248721</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G14" t="n">
-        <v>289.0201690698686</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H14" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
@@ -5299,7 +5299,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
@@ -5308,22 +5308,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U14" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V14" t="n">
-        <v>3009.337405520488</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W14" t="n">
-        <v>3009.337405520488</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X14" t="n">
-        <v>2635.871647259408</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y14" t="n">
-        <v>2245.732315283596</v>
+        <v>2051.278283189674</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G15" t="n">
         <v>176.021302392778</v>
@@ -5354,49 +5354,49 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U15" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X15" t="n">
         <v>1317.519490266131</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L16" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N16" t="n">
         <v>1317.747152581905</v>
@@ -5457,31 +5457,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672847</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U16" t="n">
-        <v>1134.908724368016</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V16" t="n">
-        <v>880.2242361621292</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W16" t="n">
-        <v>590.8070661251686</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X16" t="n">
-        <v>362.8175152271513</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y16" t="n">
-        <v>163.8377936138381</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1032.061124352531</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C17" t="n">
-        <v>663.098607412119</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D17" t="n">
-        <v>481.5845665871869</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E17" t="n">
-        <v>481.5845665871869</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F17" t="n">
         <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912088</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060171</v>
@@ -5536,7 +5536,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
@@ -5545,22 +5545,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3119.628073993393</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U17" t="n">
-        <v>2866.097597267229</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V17" t="n">
-        <v>2535.034709923658</v>
+        <v>2788.565186649823</v>
       </c>
       <c r="W17" t="n">
-        <v>2182.266054653544</v>
+        <v>2435.796531379709</v>
       </c>
       <c r="X17" t="n">
-        <v>1808.800296392464</v>
+        <v>2062.330773118629</v>
       </c>
       <c r="Y17" t="n">
-        <v>1418.660964416652</v>
+        <v>2062.330773118629</v>
       </c>
     </row>
     <row r="18">
@@ -5570,46 +5570,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064538</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
         <v>2407.411984886741</v>
@@ -5627,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5636,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5649,43 +5649,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>142.0249360836216</v>
+        <v>152.0623554265558</v>
       </c>
       <c r="C19" t="n">
-        <v>142.0249360836216</v>
+        <v>152.0623554265558</v>
       </c>
       <c r="D19" t="n">
-        <v>142.0249360836216</v>
+        <v>152.0623554265558</v>
       </c>
       <c r="E19" t="n">
-        <v>142.0249360836216</v>
+        <v>152.0623554265558</v>
       </c>
       <c r="F19" t="n">
-        <v>142.0249360836216</v>
+        <v>152.0623554265558</v>
       </c>
       <c r="G19" t="n">
-        <v>142.0249360836216</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H19" t="n">
-        <v>142.0249360836216</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O19" t="n">
         <v>1617.076751502319</v>
@@ -5700,25 +5700,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S19" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T19" t="n">
-        <v>1424.011591242373</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U19" t="n">
-        <v>1134.908724368016</v>
+        <v>1326.594608541191</v>
       </c>
       <c r="V19" t="n">
-        <v>880.2242361621296</v>
+        <v>1071.910120335304</v>
       </c>
       <c r="W19" t="n">
-        <v>590.8070661251691</v>
+        <v>782.492950298343</v>
       </c>
       <c r="X19" t="n">
-        <v>362.8175152271517</v>
+        <v>554.5033994003256</v>
       </c>
       <c r="Y19" t="n">
-        <v>142.0249360836216</v>
+        <v>333.7108202567955</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2303.170539913434</v>
+        <v>921.7704558796274</v>
       </c>
       <c r="C20" t="n">
-        <v>1934.208022973022</v>
+        <v>921.7704558796274</v>
       </c>
       <c r="D20" t="n">
-        <v>1575.942324366272</v>
+        <v>563.504757272877</v>
       </c>
       <c r="E20" t="n">
-        <v>1190.154071768027</v>
+        <v>481.584566587187</v>
       </c>
       <c r="F20" t="n">
-        <v>779.1681669784198</v>
+        <v>481.584566587187</v>
       </c>
       <c r="G20" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912087</v>
@@ -5761,43 +5761,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U20" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V20" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W20" t="n">
-        <v>3325.605821609171</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X20" t="n">
-        <v>3079.909711953368</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="Y20" t="n">
-        <v>2689.770379977556</v>
+        <v>1308.370295943749</v>
       </c>
     </row>
     <row r="21">
@@ -5807,70 +5807,70 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U21" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X21" t="n">
         <v>1317.519490266131</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2078.679253373407</v>
+        <v>181.1690503969125</v>
       </c>
       <c r="C22" t="n">
-        <v>1909.743070445501</v>
+        <v>181.1690503969125</v>
       </c>
       <c r="D22" t="n">
-        <v>1759.626431033165</v>
+        <v>181.1690503969125</v>
       </c>
       <c r="E22" t="n">
-        <v>1611.713337450772</v>
+        <v>181.1690503969125</v>
       </c>
       <c r="F22" t="n">
-        <v>1464.823389952861</v>
+        <v>181.1690503969125</v>
       </c>
       <c r="G22" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H22" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I22" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J22" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L22" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M22" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N22" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O22" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>3325.605821609171</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S22" t="n">
-        <v>3133.919937435997</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T22" t="n">
-        <v>3133.919937435997</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U22" t="n">
-        <v>2844.81707056164</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V22" t="n">
-        <v>2590.132582355754</v>
+        <v>880.2242361621301</v>
       </c>
       <c r="W22" t="n">
-        <v>2481.120297347177</v>
+        <v>590.8070661251695</v>
       </c>
       <c r="X22" t="n">
-        <v>2481.120297347177</v>
+        <v>362.8175152271522</v>
       </c>
       <c r="Y22" t="n">
-        <v>2260.327718203647</v>
+        <v>362.8175152271522</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1976.204921733553</v>
+        <v>1661.138951213863</v>
       </c>
       <c r="C23" t="n">
-        <v>1976.204921733553</v>
+        <v>1661.138951213863</v>
       </c>
       <c r="D23" t="n">
-        <v>1617.939223126803</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E23" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F23" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G23" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
         <v>1573.77673900139</v>
@@ -6007,34 +6007,34 @@
         <v>2623.528026939509</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T23" t="n">
         <v>3009.337405520489</v>
       </c>
       <c r="U23" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V23" t="n">
-        <v>2752.944093773487</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W23" t="n">
-        <v>2752.944093773487</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="X23" t="n">
-        <v>2752.944093773487</v>
+        <v>2051.278283189675</v>
       </c>
       <c r="Y23" t="n">
-        <v>2362.804761797675</v>
+        <v>1661.138951213863</v>
       </c>
     </row>
     <row r="24">
@@ -6065,7 +6065,7 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J24" t="n">
         <v>160.1893859228008</v>
@@ -6074,19 +6074,19 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q24" t="n">
         <v>2565.053542533341</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="C25" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="D25" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="E25" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F25" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G25" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H25" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I25" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J25" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K25" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L25" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M25" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N25" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O25" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P25" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q25" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R25" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>3133.919937435998</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T25" t="n">
-        <v>2912.153322005524</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U25" t="n">
-        <v>2623.050455131167</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V25" t="n">
-        <v>2368.365966925281</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W25" t="n">
-        <v>2078.94879688832</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X25" t="n">
-        <v>1850.959245990303</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y25" t="n">
-        <v>1646.471854783102</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="26">
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2345.167438673965</v>
+        <v>1853.982617026598</v>
       </c>
       <c r="C26" t="n">
-        <v>1976.204921733553</v>
+        <v>1485.020100086186</v>
       </c>
       <c r="D26" t="n">
-        <v>1617.939223126803</v>
+        <v>1126.754401479436</v>
       </c>
       <c r="E26" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F26" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G26" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
         <v>3325.605821609171</v>
@@ -6256,22 +6256,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U26" t="n">
-        <v>3009.337405520489</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V26" t="n">
-        <v>3009.337405520489</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W26" t="n">
-        <v>3009.337405520489</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X26" t="n">
-        <v>3009.337405520489</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="Y26" t="n">
-        <v>2731.767278738087</v>
+        <v>2240.582457090719</v>
       </c>
     </row>
     <row r="27">
@@ -6281,31 +6281,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
         <v>398.4535849031479</v>
@@ -6338,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6347,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2151.073568494537</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C28" t="n">
-        <v>1982.13738556663</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D28" t="n">
-        <v>1832.020746154295</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E28" t="n">
-        <v>1684.107652571901</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F28" t="n">
-        <v>1632.526226578143</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G28" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H28" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I28" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K28" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L28" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M28" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N28" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O28" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P28" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q28" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>3325.605821609171</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S28" t="n">
-        <v>3325.605821609171</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T28" t="n">
-        <v>3325.605821609171</v>
+        <v>1565.483062930404</v>
       </c>
       <c r="U28" t="n">
-        <v>3325.605821609171</v>
+        <v>1565.483062930404</v>
       </c>
       <c r="V28" t="n">
-        <v>3070.921333403285</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="W28" t="n">
-        <v>2781.504163366324</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X28" t="n">
-        <v>2553.514612468307</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y28" t="n">
-        <v>2332.722033324777</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>921.7704558796265</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="C29" t="n">
-        <v>821.1650657389509</v>
+        <v>1523.222118183415</v>
       </c>
       <c r="D29" t="n">
-        <v>821.1650657389509</v>
+        <v>1164.956419576664</v>
       </c>
       <c r="E29" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="F29" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G29" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329465</v>
@@ -6475,7 +6475,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
@@ -6484,31 +6484,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U29" t="n">
-        <v>2755.806928794325</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V29" t="n">
-        <v>2424.744041450754</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W29" t="n">
-        <v>2071.97538618064</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X29" t="n">
-        <v>1698.50962791956</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y29" t="n">
-        <v>1308.370295943748</v>
+        <v>1808.800296392465</v>
       </c>
     </row>
     <row r="30">
@@ -6533,22 +6533,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>500.476813167026</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C31" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D31" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E31" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F31" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G31" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H31" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J31" t="n">
         <v>111.634748879119</v>
@@ -6645,28 +6645,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R31" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S31" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T31" t="n">
-        <v>1615.697475415547</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U31" t="n">
-        <v>1326.59460854119</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V31" t="n">
-        <v>1071.910120335303</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W31" t="n">
-        <v>782.4929502983425</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X31" t="n">
-        <v>682.1252779972657</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y31" t="n">
-        <v>682.1252779972657</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1990.120246683345</v>
+        <v>1626.299101484277</v>
       </c>
       <c r="C32" t="n">
-        <v>1621.157729742934</v>
+        <v>1257.336584543865</v>
       </c>
       <c r="D32" t="n">
-        <v>1617.939223126803</v>
+        <v>899.0708859371146</v>
       </c>
       <c r="E32" t="n">
-        <v>1232.150970528558</v>
+        <v>513.2826333388703</v>
       </c>
       <c r="F32" t="n">
-        <v>821.1650657389509</v>
+        <v>513.2826333388703</v>
       </c>
       <c r="G32" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H32" t="n">
         <v>108.5090151927147</v>
@@ -6700,16 +6700,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
         <v>2120.555556060171</v>
@@ -6727,25 +6727,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U32" t="n">
-        <v>3119.628073993393</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V32" t="n">
-        <v>3119.628073993393</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W32" t="n">
-        <v>2766.859418723279</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X32" t="n">
-        <v>2766.859418723279</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="Y32" t="n">
-        <v>2376.720086747467</v>
+        <v>2012.898941548398</v>
       </c>
     </row>
     <row r="33">
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6812,7 +6812,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
         <v>1779.608347199865</v>
@@ -6821,10 +6821,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.9459563751726</v>
+        <v>701.1808689801002</v>
       </c>
       <c r="C34" t="n">
-        <v>784.0097734472657</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="D34" t="n">
-        <v>633.89313403493</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E34" t="n">
-        <v>485.9800404525369</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F34" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G34" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H34" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I34" t="n">
         <v>66.51211643218342</v>
@@ -6882,28 +6882,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T34" t="n">
-        <v>1424.011591242373</v>
+        <v>1762.374944995322</v>
       </c>
       <c r="U34" t="n">
-        <v>1424.011591242373</v>
+        <v>1473.272078120965</v>
       </c>
       <c r="V34" t="n">
-        <v>1424.011591242373</v>
+        <v>1218.587589915078</v>
       </c>
       <c r="W34" t="n">
-        <v>1134.594421205412</v>
+        <v>929.1704198781175</v>
       </c>
       <c r="X34" t="n">
-        <v>1134.594421205412</v>
+        <v>701.1808689801002</v>
       </c>
       <c r="Y34" t="n">
-        <v>1134.594421205412</v>
+        <v>701.1808689801002</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2005.586939522201</v>
+        <v>1506.363819949361</v>
       </c>
       <c r="C35" t="n">
-        <v>1636.624422581789</v>
+        <v>1175.344218980305</v>
       </c>
       <c r="D35" t="n">
-        <v>1278.358723975039</v>
+        <v>817.078520373555</v>
       </c>
       <c r="E35" t="n">
-        <v>892.5704713767946</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F35" t="n">
-        <v>481.5845665871869</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G35" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
@@ -6967,22 +6967,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U35" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V35" t="n">
-        <v>2884.252265792696</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W35" t="n">
-        <v>2884.252265792696</v>
+        <v>2656.568750250374</v>
       </c>
       <c r="X35" t="n">
-        <v>2782.326111562134</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y35" t="n">
-        <v>2392.186779586323</v>
+        <v>1892.963660013482</v>
       </c>
     </row>
     <row r="36">
@@ -7007,16 +7007,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>679.6952191369614</v>
+        <v>530.9956795433841</v>
       </c>
       <c r="C37" t="n">
-        <v>510.7590362090546</v>
+        <v>530.9956795433841</v>
       </c>
       <c r="D37" t="n">
-        <v>360.6423967967188</v>
+        <v>380.8790401310483</v>
       </c>
       <c r="E37" t="n">
-        <v>212.7293032143257</v>
+        <v>380.8790401310483</v>
       </c>
       <c r="F37" t="n">
-        <v>212.7293032143257</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G37" t="n">
-        <v>212.7293032143257</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7125,22 +7125,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T37" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U37" t="n">
-        <v>1854.227472251596</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V37" t="n">
-        <v>1599.542984045709</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W37" t="n">
-        <v>1310.125814008749</v>
+        <v>1161.426274415171</v>
       </c>
       <c r="X37" t="n">
-        <v>1082.136263110731</v>
+        <v>933.436723517154</v>
       </c>
       <c r="Y37" t="n">
-        <v>861.3436839672012</v>
+        <v>712.6441443736238</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2303.170539913434</v>
+        <v>1571.829289912211</v>
       </c>
       <c r="C38" t="n">
-        <v>1934.208022973022</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="D38" t="n">
-        <v>1575.942324366272</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="E38" t="n">
-        <v>1190.154071768027</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F38" t="n">
-        <v>779.1681669784198</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G38" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P38" t="n">
         <v>3018.302393296687</v>
@@ -7201,25 +7201,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U38" t="n">
-        <v>3325.605821609171</v>
+        <v>3019.265922762788</v>
       </c>
       <c r="V38" t="n">
-        <v>3029.404953444628</v>
+        <v>2688.203035419217</v>
       </c>
       <c r="W38" t="n">
-        <v>2676.636298174514</v>
+        <v>2335.434380149103</v>
       </c>
       <c r="X38" t="n">
-        <v>2303.170539913434</v>
+        <v>1961.968621888023</v>
       </c>
       <c r="Y38" t="n">
-        <v>2303.170539913434</v>
+        <v>1571.829289912211</v>
       </c>
     </row>
     <row r="39">
@@ -7256,10 +7256,10 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>163.8377936138381</v>
+        <v>690.674942710575</v>
       </c>
       <c r="C40" t="n">
-        <v>163.8377936138381</v>
+        <v>521.7387597826681</v>
       </c>
       <c r="D40" t="n">
-        <v>163.8377936138381</v>
+        <v>521.7387597826681</v>
       </c>
       <c r="E40" t="n">
-        <v>163.8377936138381</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F40" t="n">
-        <v>163.8377936138381</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G40" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H40" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
         <v>66.51211643218343</v>
@@ -7359,25 +7359,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1849.239529033303</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T40" t="n">
-        <v>1627.472913602829</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U40" t="n">
-        <v>1338.370046728473</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V40" t="n">
-        <v>1083.685558522586</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W40" t="n">
-        <v>794.2683884856252</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X40" t="n">
-        <v>566.2788375876079</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="Y40" t="n">
-        <v>345.4862584440777</v>
+        <v>872.3234075408147</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2005.586939522201</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C41" t="n">
-        <v>1636.624422581789</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D41" t="n">
-        <v>1278.358723975039</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E41" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F41" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
         <v>66.51211643218342</v>
@@ -7441,22 +7441,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V41" t="n">
-        <v>3325.605821609171</v>
+        <v>2698.747681409957</v>
       </c>
       <c r="W41" t="n">
-        <v>3155.791869823214</v>
+        <v>2345.979026139843</v>
       </c>
       <c r="X41" t="n">
-        <v>2782.326111562134</v>
+        <v>2345.979026139843</v>
       </c>
       <c r="Y41" t="n">
-        <v>2392.186779586323</v>
+        <v>2345.979026139843</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M42" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X42" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="43">
@@ -7548,22 +7548,22 @@
         <v>463.6594280995014</v>
       </c>
       <c r="C43" t="n">
-        <v>294.7232451715945</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="D43" t="n">
-        <v>163.8377936138381</v>
+        <v>313.5427886871656</v>
       </c>
       <c r="E43" t="n">
-        <v>163.8377936138381</v>
+        <v>313.5427886871656</v>
       </c>
       <c r="F43" t="n">
-        <v>163.8377936138381</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G43" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H43" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
         <v>66.51211643218342</v>
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1032.061124352531</v>
+        <v>1274.53911114974</v>
       </c>
       <c r="C44" t="n">
-        <v>663.0986074121195</v>
+        <v>905.5765942093287</v>
       </c>
       <c r="D44" t="n">
-        <v>304.832908805369</v>
+        <v>547.3108956025783</v>
       </c>
       <c r="E44" t="n">
-        <v>304.832908805369</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="F44" t="n">
-        <v>304.832908805369</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G44" t="n">
-        <v>304.832908805369</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H44" t="n">
         <v>108.5090151927147</v>
@@ -7675,25 +7675,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U44" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V44" t="n">
-        <v>2535.034709923659</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W44" t="n">
-        <v>2182.266054653544</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X44" t="n">
-        <v>1808.800296392465</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y44" t="n">
-        <v>1418.660964416653</v>
+        <v>1661.138951213862</v>
       </c>
     </row>
     <row r="45">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>662.9318377313859</v>
+        <v>271.9735439263277</v>
       </c>
       <c r="C46" t="n">
-        <v>493.9956548034791</v>
+        <v>271.9735439263277</v>
       </c>
       <c r="D46" t="n">
-        <v>343.8790153911433</v>
+        <v>271.9735439263277</v>
       </c>
       <c r="E46" t="n">
-        <v>195.9659218087502</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H46" t="n">
         <v>66.51211643218342</v>
@@ -7830,28 +7830,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U46" t="n">
-        <v>1837.464090846021</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V46" t="n">
-        <v>1582.779602640134</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W46" t="n">
-        <v>1293.362432603173</v>
+        <v>902.4041387981149</v>
       </c>
       <c r="X46" t="n">
-        <v>1065.372881705156</v>
+        <v>674.4145879000976</v>
       </c>
       <c r="Y46" t="n">
-        <v>844.5803025616257</v>
+        <v>453.6220087565674</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069086</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127245</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>25.82445471157988</v>
+        <v>25.82445471157968</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8303,7 +8303,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>26.48617644860133</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>248.6462269985626</v>
+        <v>248.646226998563</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>26.4861764486009</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>54.95314511566474</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>168.7434581780647</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154985</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>368.134376175943</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>306.4732379112257</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>113.790898776169</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23466,16 +23466,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>205.8103709312223</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>13.80344943460028</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>115.9017220489381</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23551,10 +23551,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23673,7 +23673,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>16.14213605696594</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>21.59472895491476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>326.5574464030171</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>174.9841412040002</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23788,7 +23788,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>81.33107165459958</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>21.59472895491429</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23971,25 +23971,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>300.8293812934287</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>126.4919521192241</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>52.5154436339465</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>178.6008361781005</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>270.3383810415669</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24265,13 +24265,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>324.9180517995051</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>16.14213605696602</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>16.14213605696585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24451,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>150.0882792706473</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,13 +24496,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24511,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>111.4435131414761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24612,10 +24612,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>94.3554362891105</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>140.0567569711501</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>265.6735555317387</v>
+        <v>82.55049534404799</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>126.3456598109711</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>16.14213605696602</v>
       </c>
     </row>
     <row r="32">
@@ -24922,19 +24922,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>351.4967200707133</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>10.19584368875945</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>137.2810468259684</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>56.27854221392974</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25156,25 +25156,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>37.56348681164303</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,19 +25207,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>268.8242079902134</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25314,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>144.978616734404</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>213.8754331270854</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25396,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>56.90643388915817</v>
       </c>
       <c r="V38" t="n">
-        <v>34.51339898723694</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>7.206442011548774</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>112.4945564668039</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25636,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,22 +25681,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>162.0758417714354</v>
       </c>
       <c r="W41" t="n">
-        <v>181.1251564493163</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>19.03887597603349</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>66.88649074952711</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25873,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>242.1242728538173</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25882,7 +25882,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>100.2471097107927</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25927,7 +25927,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>87.78216434168712</v>
       </c>
       <c r="F46" t="n">
-        <v>17.26178070013015</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>809272.4541268238</v>
+        <v>809272.454126824</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>809272.4541268239</v>
+        <v>809272.454126824</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>809272.4541268239</v>
+        <v>809272.454126824</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>809272.454126824</v>
+        <v>809272.4541268242</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>809272.4541268242</v>
+        <v>809272.4541268239</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>809272.4541268239</v>
+        <v>809272.454126824</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>809272.4541268239</v>
+        <v>809272.454126824</v>
       </c>
     </row>
     <row r="16">
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719632</v>
+        <v>472099.0176719633</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719628</v>
+        <v>472099.0176719626</v>
       </c>
       <c r="D2" t="n">
         <v>472099.0176719631</v>
       </c>
       <c r="E2" t="n">
-        <v>392146.6638165587</v>
+        <v>392146.663816559</v>
       </c>
       <c r="F2" t="n">
+        <v>392146.6638165589</v>
+      </c>
+      <c r="G2" t="n">
+        <v>392146.663816559</v>
+      </c>
+      <c r="H2" t="n">
+        <v>392146.663816559</v>
+      </c>
+      <c r="I2" t="n">
+        <v>392146.663816559</v>
+      </c>
+      <c r="J2" t="n">
         <v>392146.6638165588</v>
-      </c>
-      <c r="G2" t="n">
-        <v>392146.6638165588</v>
-      </c>
-      <c r="H2" t="n">
-        <v>392146.6638165588</v>
-      </c>
-      <c r="I2" t="n">
-        <v>392146.6638165589</v>
-      </c>
-      <c r="J2" t="n">
-        <v>392146.663816559</v>
       </c>
       <c r="K2" t="n">
         <v>392146.6638165589</v>
@@ -26346,10 +26346,10 @@
         <v>392146.663816559</v>
       </c>
       <c r="M2" t="n">
-        <v>392146.6638165588</v>
+        <v>392146.663816559</v>
       </c>
       <c r="N2" t="n">
-        <v>392146.663816559</v>
+        <v>392146.6638165591</v>
       </c>
       <c r="O2" t="n">
         <v>392146.663816559</v>
@@ -26368,13 +26368,13 @@
         <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>176672.6241739477</v>
+        <v>176672.6241739487</v>
       </c>
       <c r="D3" t="n">
-        <v>223886.3093819097</v>
+        <v>223886.3093819089</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171902</v>
+        <v>182072.9798171904</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.1544191141</v>
+        <v>68999.15441911395</v>
       </c>
       <c r="K3" t="n">
-        <v>41076.98154640754</v>
+        <v>41076.98154640778</v>
       </c>
       <c r="L3" t="n">
-        <v>54988.29121946863</v>
+        <v>54988.29121946853</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341482</v>
+        <v>47552.26579341485</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,25 +26420,25 @@
         <v>247648.567042389</v>
       </c>
       <c r="C4" t="n">
-        <v>199645.5971079035</v>
+        <v>199645.5971079033</v>
       </c>
       <c r="D4" t="n">
-        <v>135522.1369769831</v>
+        <v>135522.136976983</v>
       </c>
       <c r="E4" t="n">
-        <v>8550.515172066873</v>
+        <v>8550.515172066862</v>
       </c>
       <c r="F4" t="n">
-        <v>8550.515172066873</v>
+        <v>8550.515172066862</v>
       </c>
       <c r="G4" t="n">
         <v>8550.515172066862</v>
       </c>
       <c r="H4" t="n">
-        <v>8550.515172066873</v>
+        <v>8550.515172066862</v>
       </c>
       <c r="I4" t="n">
-        <v>8550.515172066862</v>
+        <v>8550.5151720669</v>
       </c>
       <c r="J4" t="n">
         <v>8550.515172066862</v>
@@ -26469,28 +26469,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>75746.871679231</v>
+        <v>75746.87167923106</v>
       </c>
       <c r="D5" t="n">
         <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139333</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="J5" t="n">
         <v>74306.3405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-518685.3331658852</v>
+        <v>-518685.3331658851</v>
       </c>
       <c r="C6" t="n">
-        <v>20033.92471088056</v>
+        <v>20033.92471087951</v>
       </c>
       <c r="D6" t="n">
-        <v>19752.79887322563</v>
+        <v>19752.79887322645</v>
       </c>
       <c r="E6" t="n">
-        <v>127216.8282659084</v>
+        <v>123740.6389678473</v>
       </c>
       <c r="F6" t="n">
-        <v>309289.8080830987</v>
+        <v>305813.6187850377</v>
       </c>
       <c r="G6" t="n">
-        <v>309289.8080830985</v>
+        <v>305813.6187850375</v>
       </c>
       <c r="H6" t="n">
-        <v>309289.8080830988</v>
+        <v>305813.6187850378</v>
       </c>
       <c r="I6" t="n">
-        <v>309289.8080830986</v>
+        <v>305813.6187850378</v>
       </c>
       <c r="J6" t="n">
-        <v>240290.6536639847</v>
+        <v>236814.4643659237</v>
       </c>
       <c r="K6" t="n">
-        <v>268212.8265366912</v>
+        <v>264736.6372386299</v>
       </c>
       <c r="L6" t="n">
-        <v>254301.5168636302</v>
+        <v>250825.3275655692</v>
       </c>
       <c r="M6" t="n">
-        <v>261737.5422896838</v>
+        <v>258261.3529916229</v>
       </c>
       <c r="N6" t="n">
-        <v>309289.8080830988</v>
+        <v>305813.6187850378</v>
       </c>
       <c r="O6" t="n">
-        <v>309289.8080830988</v>
+        <v>305813.6187850377</v>
       </c>
       <c r="P6" t="n">
-        <v>309289.8080830987</v>
+        <v>305813.6187850377</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>751.4467899908044</v>
+        <v>751.4467899908052</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175394</v>
@@ -26752,10 +26752,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26789,40 +26789,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>423.3179548919649</v>
+        <v>423.3179548919656</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="G4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="H4" t="n">
+        <v>831.4014554022931</v>
+      </c>
+      <c r="I4" t="n">
+        <v>831.4014554022931</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="G4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="I4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="K4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="L4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022929</v>
@@ -26962,13 +26962,13 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>137.391776221326</v>
+        <v>137.3917762213268</v>
       </c>
       <c r="D3" t="n">
-        <v>182.618102126735</v>
+        <v>182.6181021267342</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757586</v>
+        <v>155.7118084757589</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>159.6040748904585</v>
+        <v>159.6040748904594</v>
       </c>
       <c r="D4" t="n">
-        <v>217.266877208074</v>
+        <v>217.2668772080735</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015057</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904585</v>
+        <v>159.6040748904595</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080739</v>
+        <v>217.2668772080735</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904585</v>
+        <v>159.6040748904594</v>
       </c>
       <c r="L4" t="n">
-        <v>217.266877208074</v>
+        <v>217.2668772080735</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>288.0057239602885</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,13 +27393,13 @@
         <v>143.1621657402052</v>
       </c>
       <c r="G2" t="n">
-        <v>295.8616086872805</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776178</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
@@ -27438,10 +27438,10 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862865</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>85.52708871590676</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27457,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>79.43173836334168</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27472,10 +27472,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
         <v>43.92180400150558</v>
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
@@ -27517,16 +27517,16 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>195.5884214778209</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27545,13 +27545,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
@@ -27560,7 +27560,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117122</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>192.5631472107156</v>
       </c>
       <c r="X4" t="n">
-        <v>36.51302198640352</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>249.5468798621752</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>146.8795986871063</v>
       </c>
       <c r="I5" t="n">
-        <v>94.01296546539891</v>
+        <v>94.01296546539878</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>251.1039815783922</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>135.7271976526644</v>
       </c>
       <c r="H6" t="n">
-        <v>96.62520054253655</v>
+        <v>96.62520054253653</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>33.74703566813374</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,10 +27745,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>14.56476845098278</v>
+        <v>141.6607451075071</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.6498268080145</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27763,7 +27763,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>101.8418346191965</v>
       </c>
     </row>
     <row r="7">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27782,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.3646073887348</v>
+        <v>116.3646073887347</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>113.8116295994127</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.1557535054015</v>
       </c>
       <c r="U7" t="n">
-        <v>50.15384046650365</v>
+        <v>286.2451165574754</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>234.7738781511283</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -27912,13 +27912,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>219.8138892243585</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28013,22 +28013,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>55.73584717546825</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28061,7 +28061,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
@@ -28070,7 +28070,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>247.0812079966605</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.020891618053483</v>
+        <v>3.020891618053486</v>
       </c>
       <c r="H5" t="n">
-        <v>30.93770628339024</v>
+        <v>30.93770628339027</v>
       </c>
       <c r="I5" t="n">
-        <v>116.462924105007</v>
+        <v>116.4629241050071</v>
       </c>
       <c r="J5" t="n">
-        <v>256.394399967767</v>
+        <v>256.3943999677673</v>
       </c>
       <c r="K5" t="n">
-        <v>384.268742159971</v>
+        <v>384.2687421599714</v>
       </c>
       <c r="L5" t="n">
-        <v>476.7193540159754</v>
+        <v>476.7193540159759</v>
       </c>
       <c r="M5" t="n">
-        <v>530.4421353285339</v>
+        <v>530.4421353285345</v>
       </c>
       <c r="N5" t="n">
-        <v>539.0252436383284</v>
+        <v>539.025243638329</v>
       </c>
       <c r="O5" t="n">
-        <v>508.9862526113091</v>
+        <v>508.9862526113097</v>
       </c>
       <c r="P5" t="n">
-        <v>434.4079907906137</v>
+        <v>434.4079907906142</v>
       </c>
       <c r="Q5" t="n">
-        <v>326.2223097190733</v>
+        <v>326.2223097190736</v>
       </c>
       <c r="R5" t="n">
-        <v>189.7610831025522</v>
+        <v>189.7610831025524</v>
       </c>
       <c r="S5" t="n">
-        <v>68.83856774639381</v>
+        <v>68.83856774639388</v>
       </c>
       <c r="T5" t="n">
-        <v>13.22395305802913</v>
+        <v>13.22395305802914</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2416713294442786</v>
+        <v>0.2416713294442788</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.616319510546259</v>
+        <v>1.61631951054626</v>
       </c>
       <c r="H6" t="n">
-        <v>15.61024369395992</v>
+        <v>15.61024369395994</v>
       </c>
       <c r="I6" t="n">
-        <v>55.64959718328128</v>
+        <v>55.64959718328134</v>
       </c>
       <c r="J6" t="n">
-        <v>152.70674814332</v>
+        <v>152.7067481433202</v>
       </c>
       <c r="K6" t="n">
-        <v>261.0001553499193</v>
+        <v>261.0001553499196</v>
       </c>
       <c r="L6" t="n">
-        <v>350.9469182876866</v>
+        <v>350.946918287687</v>
       </c>
       <c r="M6" t="n">
-        <v>409.5385005449883</v>
+        <v>409.5385005449888</v>
       </c>
       <c r="N6" t="n">
-        <v>420.3777660345727</v>
+        <v>420.3777660345732</v>
       </c>
       <c r="O6" t="n">
-        <v>384.5635284587846</v>
+        <v>384.563528458785</v>
       </c>
       <c r="P6" t="n">
-        <v>308.6461353077325</v>
+        <v>308.6461353077328</v>
       </c>
       <c r="Q6" t="n">
-        <v>206.3217676970979</v>
+        <v>206.3217676970981</v>
       </c>
       <c r="R6" t="n">
-        <v>100.3535920670739</v>
+        <v>100.353592067074</v>
       </c>
       <c r="S6" t="n">
-        <v>30.0224259963307</v>
+        <v>30.02242599633074</v>
       </c>
       <c r="T6" t="n">
-        <v>6.514901886807066</v>
+        <v>6.514901886807073</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1063368099043592</v>
+        <v>0.1063368099043593</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.355067981950631</v>
+        <v>1.355067981950632</v>
       </c>
       <c r="H7" t="n">
-        <v>12.04778623952471</v>
+        <v>12.04778623952472</v>
       </c>
       <c r="I7" t="n">
-        <v>40.75058985720625</v>
+        <v>40.7505898572063</v>
       </c>
       <c r="J7" t="n">
-        <v>95.8033063239096</v>
+        <v>95.80330632390969</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4342619029914</v>
+        <v>157.4342619029916</v>
       </c>
       <c r="L7" t="n">
-        <v>201.4616525165511</v>
+        <v>201.4616525165513</v>
       </c>
       <c r="M7" t="n">
-        <v>212.4130655706793</v>
+        <v>212.4130655706795</v>
       </c>
       <c r="N7" t="n">
-        <v>207.3623576379544</v>
+        <v>207.3623576379546</v>
       </c>
       <c r="O7" t="n">
-        <v>191.5326998488038</v>
+        <v>191.532699848804</v>
       </c>
       <c r="P7" t="n">
-        <v>163.8893130170108</v>
+        <v>163.8893130170109</v>
       </c>
       <c r="Q7" t="n">
-        <v>113.4684652886115</v>
+        <v>113.4684652886116</v>
       </c>
       <c r="R7" t="n">
-        <v>60.92878398843471</v>
+        <v>60.92878398843477</v>
       </c>
       <c r="S7" t="n">
-        <v>23.61513928544871</v>
+        <v>23.61513928544874</v>
       </c>
       <c r="T7" t="n">
-        <v>5.789835922879966</v>
+        <v>5.789835922879973</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07391279901548904</v>
+        <v>0.07391279901548911</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32235,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002919</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32387,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987481</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33268,7 +33268,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
         <v>593.9283018233475</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33745,7 +33745,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
         <v>609.6478166837925</v>
@@ -33976,7 +33976,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138796</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.32166909127262</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>75.4384048176305</v>
@@ -34798,7 +34798,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>125.9385470877689</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>75.34849544108073</v>
+        <v>75.34849544108101</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1788911149904</v>
+        <v>164.1788911149908</v>
       </c>
       <c r="L5" t="n">
-        <v>240.9529390459882</v>
+        <v>240.9529390459887</v>
       </c>
       <c r="M5" t="n">
-        <v>300.0959021012612</v>
+        <v>300.0959021012618</v>
       </c>
       <c r="N5" t="n">
-        <v>309.6121800417375</v>
+        <v>309.6121800417381</v>
       </c>
       <c r="O5" t="n">
-        <v>278.8880411896224</v>
+        <v>278.888041189623</v>
       </c>
       <c r="P5" t="n">
-        <v>203.1749950353442</v>
+        <v>203.1749950353446</v>
       </c>
       <c r="Q5" t="n">
-        <v>103.9166198446238</v>
+        <v>103.9166198446241</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>25.86912147665331</v>
+        <v>25.86912147665348</v>
       </c>
       <c r="K6" t="n">
-        <v>123.1587163755603</v>
+        <v>123.1587163755606</v>
       </c>
       <c r="L6" t="n">
-        <v>212.3925385078124</v>
+        <v>212.3925385078128</v>
       </c>
       <c r="M6" t="n">
-        <v>293.8906430715713</v>
+        <v>267.4044666229705</v>
       </c>
       <c r="N6" t="n">
-        <v>289.0360539512394</v>
+        <v>289.0360539512399</v>
       </c>
       <c r="O6" t="n">
-        <v>241.9672840143401</v>
+        <v>241.9672840143406</v>
       </c>
       <c r="P6" t="n">
-        <v>423.3179548919649</v>
+        <v>423.3179548919656</v>
       </c>
       <c r="Q6" t="n">
-        <v>66.33999361107635</v>
+        <v>92.82617005967748</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1957579144307431</v>
+        <v>0.1957579144308568</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.44412620723682</v>
+        <v>2.44412620723692</v>
       </c>
       <c r="K7" t="n">
-        <v>135.1647700771086</v>
+        <v>135.1647700771088</v>
       </c>
       <c r="L7" t="n">
-        <v>229.0516777768672</v>
+        <v>229.0516777768674</v>
       </c>
       <c r="M7" t="n">
-        <v>251.9969425325199</v>
+        <v>251.9969425325201</v>
       </c>
       <c r="N7" t="n">
-        <v>251.494530017183</v>
+        <v>251.4945300171832</v>
       </c>
       <c r="O7" t="n">
-        <v>216.1178277628434</v>
+        <v>216.1178277628437</v>
       </c>
       <c r="P7" t="n">
-        <v>161.1678722819043</v>
+        <v>161.1678722819044</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.30642203691707</v>
+        <v>27.3064220369172</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>117.9333660065822</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560635</v>
+        <v>355.3309544215496</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378503</v>
@@ -35275,7 +35275,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859617</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302282</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127265</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36916,7 +36916,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
         <v>451.7942679013292</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37393,7 +37393,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
         <v>478.3061046004592</v>
@@ -37624,7 +37624,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340054</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
